--- a/A02QPCA_Fin Buff Calc.xlsx
+++ b/A02QPCA_Fin Buff Calc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\1.-TRABAJOS ONY\ACTUALIZACIONES (FINALES 2023-LEO)\11.- A02QPCA (ISMARY)\CORRECCION 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\1.-TRABAJOS ONY\ACTUALIZACIONES (FINALES 2023-LEO)\11.- A02QPCA (ISMARY)\CORRECCION 2\CORRECCION QUE FALTARON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FC6C56-5F7E-478E-837C-97508519FC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C2E4A6-5BC1-4657-8FF4-2ACE397B22C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FII9xdQ8nYlcZ53A4GQrWQ/e825B6fn3unw+plQMytnFsUkitSJRJ2Cuh7xlkEp6QTwrsu+DN7Z23felzt5+xw==" workbookSaltValue="Zd7fKGY+E4S7GJKHgn67NQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1127,7 +1127,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="15">
-        <v>269293.15999999997</v>
+        <v>279080.46999999997</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
@@ -1188,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="12">
-        <v>98397.51</v>
+        <v>98770.91</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D6" s="10">
         <f>IF(D3,D5/D3,0)</f>
-        <v>0.36539179086464729</v>
+        <v>0.35391552121149866</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>5</v>
@@ -1237,11 +1237,11 @@
       </c>
       <c r="D8" s="22">
         <f>D4*0.3+(IF(AND(D6&lt;10%),0,IF(AND(D6&gt;=10%,D6&lt;33%),D5*15%,IF(AND(D6&gt;=33%,D6&lt;50%),D5*20%,IF(AND(D6&gt;=50%,D6&lt;65%),D5*25%,IF(AND(D6&gt;=65%),D5*35%))))))</f>
-        <v>19679.502</v>
+        <v>19754.182000000001</v>
       </c>
       <c r="E8" s="21">
         <f>D8/120</f>
-        <v>163.99584999999999</v>
+        <v>164.61818333333335</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="49"/>
@@ -1255,11 +1255,11 @@
       </c>
       <c r="D9" s="14">
         <f>D8*1.5</f>
-        <v>29519.253000000001</v>
+        <v>29631.273000000001</v>
       </c>
       <c r="E9" s="13">
         <f>D9/120</f>
-        <v>245.993775</v>
+        <v>246.92727500000001</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="49"/>
@@ -1351,21 +1351,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010077032FF824D2AE488462F1841EBA28CC" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a58bd07298e53f370e97470010a13c95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -1479,17 +1464,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73036319-82EC-4CF4-9D1B-9B71D51BB86A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F063A7C-61AB-479C-A1E5-92DE09B7F3E3}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1503,17 +1504,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F063A7C-61AB-479C-A1E5-92DE09B7F3E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73036319-82EC-4CF4-9D1B-9B71D51BB86A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>